--- a/data_handler/config_calc_details(India)/2-statistic_config-detail type days.xlsx
+++ b/data_handler/config_calc_details(India)/2-statistic_config-detail type days.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5BAD75-CB82-46A4-9879-039A638D2FF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193550C3-5C80-45CF-8318-34B3817BA202}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1340,17 +1340,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2209,7 +2199,7 @@
       </c>
       <c r="C2" s="37">
         <f ca="1">TODAY()</f>
-        <v>44189</v>
+        <v>44221</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>42</v>
@@ -2776,7 +2766,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3342,7 +3332,7 @@
       </c>
       <c r="B6" s="39" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-6,"YYYY/mm/dd")</f>
-        <v>2020/12/18</v>
+        <v>2021/01/19</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>16</v>
@@ -3357,7 +3347,7 @@
       </c>
       <c r="B7" s="39" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-5,"YYYY/mm/dd")</f>
-        <v>2020/12/19</v>
+        <v>2021/01/20</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>16</v>
@@ -3372,7 +3362,7 @@
       </c>
       <c r="B8" s="39" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-4,"YYYY/mm/dd")</f>
-        <v>2020/12/20</v>
+        <v>2021/01/21</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>16</v>
@@ -3387,7 +3377,7 @@
       </c>
       <c r="B9" s="39" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-3,"YYYY/mm/dd")</f>
-        <v>2020/12/21</v>
+        <v>2021/01/22</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>16</v>
@@ -3402,7 +3392,7 @@
       </c>
       <c r="B10" s="39" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-2,"YYYY/mm/dd")</f>
-        <v>2020/12/22</v>
+        <v>2021/01/23</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>16</v>
@@ -3417,7 +3407,7 @@
       </c>
       <c r="B11" s="39" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-1,"YYYY/mm/dd")</f>
-        <v>2020/12/23</v>
+        <v>2021/01/24</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>16</v>
@@ -3577,7 +3567,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="str">
         <f ca="1">"发帖时间 &gt;= " &amp; "'" &amp; TEXT(TODAY()-20,"yyyy-mm-dd") &amp; "'"</f>
-        <v>发帖时间 &gt;= '2020-12-04'</v>
+        <v>发帖时间 &gt;= '2021-01-05'</v>
       </c>
       <c r="J2" s="5"/>
     </row>
